--- a/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_lcarmody_edited.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_lcarmody_edited.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="290">
   <si>
     <t>&gt;</t>
   </si>
@@ -909,6 +909,9 @@
   </si>
   <si>
     <t>Tulahuen strain</t>
+  </si>
+  <si>
+    <t>assay component role</t>
   </si>
 </sst>
 </file>
@@ -2219,8 +2222,8 @@
   <dimension ref="A1:BH69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2190" topLeftCell="D1"/>
-      <selection pane="topRight" activeCell="I62" sqref="I62"/>
+      <pane xSplit="2190" topLeftCell="D1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2377,7 +2380,7 @@
         <v>93</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>94</v>

--- a/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_lcarmody_edited.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_lcarmody_edited.xlsx
@@ -16,7 +16,7 @@
     <definedName name="activity_threshold">'Assay Definition'!#REF!</definedName>
     <definedName name="assay_component_concentration">'Assay Definition'!#REF!</definedName>
     <definedName name="assay_component_role">'Assay Definition'!#REF!</definedName>
-    <definedName name="assay_component_type">'Assay Definition'!$H$70:$H$70</definedName>
+    <definedName name="assay_component_type">'Assay Definition'!#REF!</definedName>
     <definedName name="assay_footprint">'Assay Definition'!#REF!</definedName>
     <definedName name="assay_format">'Assay Definition'!#REF!</definedName>
     <definedName name="assay_stage">'Assay Definition'!#REF!</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="290">
   <si>
     <t>&gt;</t>
   </si>
@@ -836,9 +836,6 @@
     <t>SUM159</t>
   </si>
   <si>
-    <t>ImageXpress Micro </t>
-  </si>
-  <si>
     <t>DOID:12140</t>
   </si>
   <si>
@@ -890,9 +887,6 @@
     <t>Hedgehog signaling</t>
   </si>
   <si>
-    <t> Tecan Safire 2 </t>
-  </si>
-  <si>
     <t>GO: 0008219</t>
   </si>
   <si>
@@ -912,6 +906,12 @@
   </si>
   <si>
     <t>assay component role</t>
+  </si>
+  <si>
+    <t>ImageXpress Micro</t>
+  </si>
+  <si>
+    <t>Tecan Safire 2</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="73" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1545,6 +1544,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2219,11 +2219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:BH69"/>
+  <dimension ref="A1:BH68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2190" topLeftCell="D1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2251,10 +2250,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="4" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>150</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -2284,7 +2283,7 @@
       <c r="K1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>158</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -2361,10 +2360,10 @@
       <c r="BH1" s="28"/>
     </row>
     <row r="2" spans="1:60" s="5" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2380,7 +2379,7 @@
         <v>93</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>94</v>
@@ -2394,7 +2393,7 @@
       <c r="K2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -2540,7 +2539,7 @@
       </c>
     </row>
     <row r="3" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>172</v>
       </c>
       <c r="B3" s="12" t="str">
@@ -2551,7 +2550,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>64</v>
@@ -2566,7 +2565,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J3" s="1">
         <v>166667</v>
@@ -2579,7 +2578,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>70</v>
@@ -2605,7 +2604,7 @@
       <c r="W3" s="11">
         <v>560</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="16" t="s">
         <v>258</v>
       </c>
       <c r="Z3" s="12" t="s">
@@ -2624,7 +2623,7 @@
         <v>167</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF3" s="11" t="s">
         <v>69</v>
@@ -2712,7 +2711,7 @@
       </c>
     </row>
     <row r="4" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>172</v>
       </c>
       <c r="B4" s="12" t="str">
@@ -2720,7 +2719,7 @@
         <v/>
       </c>
       <c r="D4" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>34</v>
@@ -2728,17 +2727,17 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>288</v>
+      <c r="I4" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="L4" s="10"/>
       <c r="AE4" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BF4" s="8"/>
     </row>
     <row r="5" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="12" t="str">
@@ -2753,7 +2752,7 @@
         <v>167</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF5" s="11" t="s">
         <v>69</v>
@@ -2829,7 +2828,7 @@
       </c>
     </row>
     <row r="6" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>182</v>
       </c>
       <c r="B6" s="12" t="str">
@@ -2838,12 +2837,12 @@
       </c>
       <c r="L6" s="10"/>
       <c r="AE6" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BF6" s="8"/>
     </row>
     <row r="7" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B7" s="12" t="str">
@@ -2854,13 +2853,13 @@
         <v>65</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>27</v>
@@ -2869,7 +2868,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J7" s="1">
         <v>166667</v>
@@ -2927,7 +2926,7 @@
         <v>167</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF7" s="11" t="s">
         <v>69</v>
@@ -3015,7 +3014,7 @@
       </c>
     </row>
     <row r="8" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B8" s="12" t="str">
@@ -3025,8 +3024,8 @@
       <c r="H8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>288</v>
+      <c r="I8" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="L8" s="10"/>
       <c r="Y8" s="11" t="s">
@@ -3036,7 +3035,7 @@
       <c r="BF8" s="8"/>
     </row>
     <row r="9" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>2044</v>
       </c>
       <c r="B9" s="12" t="str">
@@ -3047,7 +3046,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>64</v>
@@ -3062,7 +3061,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J9" s="1">
         <v>166667</v>
@@ -3075,7 +3074,7 @@
         <v>36</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>70</v>
@@ -3120,7 +3119,7 @@
         <v>167</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF9" s="11" t="s">
         <v>69</v>
@@ -3208,7 +3207,7 @@
       </c>
     </row>
     <row r="10" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>2044</v>
       </c>
       <c r="B10" s="12" t="str">
@@ -3216,7 +3215,7 @@
         <v/>
       </c>
       <c r="D10" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>34</v>
@@ -3224,20 +3223,20 @@
       <c r="H10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>288</v>
+      <c r="I10" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="L10" s="10"/>
-      <c r="Y10" s="17" t="s">
+      <c r="Y10" s="16" t="s">
         <v>258</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BF10" s="8"/>
     </row>
     <row r="11" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>187</v>
       </c>
       <c r="B11" s="12" t="str">
@@ -3248,7 +3247,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>64</v>
@@ -3263,7 +3262,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J11" s="1">
         <v>166667</v>
@@ -3276,7 +3275,7 @@
         <v>36</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>70</v>
@@ -3302,7 +3301,7 @@
       <c r="W11" s="11">
         <v>560</v>
       </c>
-      <c r="Y11" s="17" t="s">
+      <c r="Y11" s="16" t="s">
         <v>258</v>
       </c>
       <c r="Z11" s="12" t="s">
@@ -3321,7 +3320,7 @@
         <v>167</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF11" s="11" t="s">
         <v>69</v>
@@ -3409,7 +3408,7 @@
       </c>
     </row>
     <row r="12" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>187</v>
       </c>
       <c r="B12" s="12" t="str">
@@ -3417,7 +3416,7 @@
         <v/>
       </c>
       <c r="D12" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>34</v>
@@ -3425,17 +3424,17 @@
       <c r="H12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>288</v>
+      <c r="I12" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="L12" s="10"/>
       <c r="AE12" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BF12" s="8"/>
     </row>
     <row r="13" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>188</v>
       </c>
       <c r="B13" s="12" t="str">
@@ -3446,7 +3445,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>64</v>
@@ -3461,7 +3460,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J13" s="1">
         <v>166667</v>
@@ -3474,7 +3473,7 @@
         <v>36</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>70</v>
@@ -3519,7 +3518,7 @@
         <v>167</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF13" s="11" t="s">
         <v>69</v>
@@ -3607,7 +3606,7 @@
       </c>
     </row>
     <row r="14" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>188</v>
       </c>
       <c r="B14" s="12" t="str">
@@ -3615,7 +3614,7 @@
         <v/>
       </c>
       <c r="D14" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>34</v>
@@ -3623,20 +3622,20 @@
       <c r="H14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>288</v>
+      <c r="I14" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="Y14" s="17" t="s">
+      <c r="Y14" s="16" t="s">
         <v>258</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BF14" s="8"/>
     </row>
     <row r="15" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>189</v>
       </c>
       <c r="B15" s="12" t="str">
@@ -3647,13 +3646,13 @@
         <v>65</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>27</v>
@@ -3662,7 +3661,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J15" s="1">
         <v>166667</v>
@@ -3720,7 +3719,7 @@
         <v>167</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF15" s="11" t="s">
         <v>69</v>
@@ -3808,7 +3807,7 @@
       </c>
     </row>
     <row r="16" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>189</v>
       </c>
       <c r="B16" s="12" t="str">
@@ -3818,8 +3817,8 @@
       <c r="H16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="25" t="s">
-        <v>288</v>
+      <c r="I16" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="L16" s="10"/>
       <c r="Y16" s="11" t="s">
@@ -3829,7 +3828,7 @@
       <c r="BF16" s="8"/>
     </row>
     <row r="17" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>190</v>
       </c>
       <c r="B17" s="12" t="str">
@@ -3840,7 +3839,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>64</v>
@@ -3855,7 +3854,7 @@
         <v>28</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J17" s="1">
         <v>166667</v>
@@ -3868,7 +3867,7 @@
         <v>36</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>70</v>
@@ -3913,7 +3912,7 @@
         <v>167</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF17" s="11" t="s">
         <v>69</v>
@@ -4001,7 +4000,7 @@
       </c>
     </row>
     <row r="18" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>190</v>
       </c>
       <c r="B18" s="12" t="str">
@@ -4009,7 +4008,7 @@
         <v/>
       </c>
       <c r="D18" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>34</v>
@@ -4017,20 +4016,20 @@
       <c r="H18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>288</v>
+      <c r="I18" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="L18" s="10"/>
-      <c r="Y18" s="17" t="s">
+      <c r="Y18" s="16" t="s">
         <v>258</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BF18" s="8"/>
     </row>
     <row r="19" spans="1:59" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>191</v>
       </c>
       <c r="B19" s="12" t="str">
@@ -4041,7 +4040,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>64</v>
@@ -4056,7 +4055,7 @@
         <v>28</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J19" s="1">
         <v>166667</v>
@@ -4068,8 +4067,8 @@
       <c r="M19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="19" t="s">
-        <v>272</v>
+      <c r="N19" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>67</v>
@@ -4078,7 +4077,7 @@
         <v>60</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>56</v>
@@ -4095,10 +4094,10 @@
       <c r="X19" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="Z19" s="17" t="s">
+      <c r="Z19" s="16" t="s">
         <v>0</v>
       </c>
       <c r="AA19" s="11">
@@ -4114,7 +4113,7 @@
         <v>167</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF19" s="11" t="s">
         <v>69</v>
@@ -4202,7 +4201,7 @@
       </c>
     </row>
     <row r="20" spans="1:59" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>191</v>
       </c>
       <c r="B20" s="12" t="str">
@@ -4210,7 +4209,7 @@
         <v/>
       </c>
       <c r="D20" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>50</v>
@@ -4221,14 +4220,14 @@
       <c r="H20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>288</v>
+      <c r="I20" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="N20" s="18" t="s">
-        <v>273</v>
+      <c r="N20" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>67</v>
@@ -4237,7 +4236,7 @@
         <v>60</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>56</v>
@@ -4253,12 +4252,12 @@
       </c>
       <c r="X20" s="12"/>
       <c r="AE20" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BF20" s="8"/>
     </row>
     <row r="21" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>191</v>
       </c>
       <c r="B21" s="12" t="str">
@@ -4266,20 +4265,20 @@
         <v/>
       </c>
       <c r="G21" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="L21" s="10"/>
       <c r="X21" s="12"/>
       <c r="BF21" s="8"/>
     </row>
     <row r="22" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B22" s="12" t="str">
@@ -4305,7 +4304,7 @@
         <v>30</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J22" s="1">
         <v>40000</v>
@@ -4346,7 +4345,7 @@
       <c r="X22" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="Y22" s="21" t="s">
+      <c r="Y22" s="20" t="s">
         <v>258</v>
       </c>
       <c r="Z22" s="13" t="s">
@@ -4453,7 +4452,7 @@
       </c>
     </row>
     <row r="23" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B23" s="12" t="str">
@@ -4468,7 +4467,7 @@
       <c r="BF23" s="8"/>
     </row>
     <row r="24" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>198</v>
       </c>
       <c r="B24" s="12" t="str">
@@ -4560,7 +4559,7 @@
       </c>
     </row>
     <row r="25" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>199</v>
       </c>
       <c r="B25" s="12" t="str">
@@ -4728,7 +4727,7 @@
       </c>
     </row>
     <row r="26" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>199</v>
       </c>
       <c r="B26" s="12" t="str">
@@ -4743,7 +4742,7 @@
       <c r="BF26" s="8"/>
     </row>
     <row r="27" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>200</v>
       </c>
       <c r="B27" s="12" t="str">
@@ -4769,7 +4768,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J27" s="1">
         <v>40000</v>
@@ -4914,7 +4913,7 @@
       </c>
     </row>
     <row r="28" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>200</v>
       </c>
       <c r="B28" s="12" t="str">
@@ -4929,7 +4928,7 @@
       <c r="BF28" s="8"/>
     </row>
     <row r="29" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>201</v>
       </c>
       <c r="B29" s="12" t="str">
@@ -4937,7 +4936,7 @@
         <v>Need a Detector Role</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L29" s="10"/>
       <c r="Y29" s="10"/>
@@ -4948,7 +4947,7 @@
         <v>167</v>
       </c>
       <c r="AE29" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF29" s="11" t="s">
         <v>69</v>
@@ -4973,7 +4972,7 @@
       </c>
     </row>
     <row r="30" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>201</v>
       </c>
       <c r="B30" s="12" t="str">
@@ -4983,12 +4982,12 @@
       <c r="L30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="AE30" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BF30" s="8"/>
     </row>
     <row r="31" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>202</v>
       </c>
       <c r="B31" s="12" t="str">
@@ -4999,7 +4998,7 @@
         <v>57</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>64</v>
@@ -5014,7 +5013,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J31" s="10">
         <v>80</v>
@@ -5027,7 +5026,7 @@
         <v>39</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>70</v>
@@ -5069,7 +5068,7 @@
         <v>167</v>
       </c>
       <c r="AE31" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF31" s="11" t="s">
         <v>69</v>
@@ -5157,7 +5156,7 @@
       </c>
     </row>
     <row r="32" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>463208</v>
       </c>
       <c r="B32" s="12" t="str">
@@ -5165,7 +5164,7 @@
         <v>Need a Detector Role</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>259</v>
@@ -5173,12 +5172,12 @@
       <c r="L32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="AE32" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BF32" s="8"/>
     </row>
     <row r="33" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>493176</v>
       </c>
       <c r="B33" s="12" t="str">
@@ -5201,7 +5200,7 @@
         <v>30</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J33" s="1">
         <v>40000</v>
@@ -5346,7 +5345,7 @@
       </c>
     </row>
     <row r="34" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>493176</v>
       </c>
       <c r="B34" s="12" t="str">
@@ -5364,7 +5363,7 @@
       <c r="BF34" s="8"/>
     </row>
     <row r="35" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>493196</v>
       </c>
       <c r="B35" s="12" t="str">
@@ -5390,7 +5389,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J35" s="1">
         <v>40000</v>
@@ -5535,7 +5534,7 @@
       </c>
     </row>
     <row r="36" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B36" s="12" t="str">
@@ -5550,7 +5549,7 @@
       <c r="BF36" s="8"/>
     </row>
     <row r="37" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>214</v>
       </c>
       <c r="B37" s="12" t="str">
@@ -5561,7 +5560,7 @@
         <v>65</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>64</v>
@@ -5576,7 +5575,7 @@
         <v>28</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J37" s="1">
         <v>166667</v>
@@ -5589,7 +5588,7 @@
         <v>36</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>70</v>
@@ -5634,7 +5633,7 @@
         <v>167</v>
       </c>
       <c r="AE37" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF37" s="11" t="s">
         <v>69</v>
@@ -5722,7 +5721,7 @@
       </c>
     </row>
     <row r="38" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>214</v>
       </c>
       <c r="B38" s="12" t="str">
@@ -5730,7 +5729,7 @@
         <v/>
       </c>
       <c r="D38" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>34</v>
@@ -5738,20 +5737,20 @@
       <c r="H38" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="25" t="s">
-        <v>288</v>
+      <c r="I38" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="L38" s="10"/>
-      <c r="Y38" s="17" t="s">
+      <c r="Y38" s="16" t="s">
         <v>258</v>
       </c>
       <c r="AE38" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BF38" s="8"/>
     </row>
     <row r="39" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>215</v>
       </c>
       <c r="B39" s="12" t="str">
@@ -5762,13 +5761,13 @@
         <v>65</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>27</v>
@@ -5777,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J39" s="1">
         <v>166667</v>
@@ -5835,7 +5834,7 @@
         <v>167</v>
       </c>
       <c r="AE39" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF39" s="11" t="s">
         <v>69</v>
@@ -5923,7 +5922,7 @@
       </c>
     </row>
     <row r="40" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>215</v>
       </c>
       <c r="B40" s="12" t="str">
@@ -5933,8 +5932,8 @@
       <c r="H40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="25" t="s">
-        <v>288</v>
+      <c r="I40" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="L40" s="10"/>
       <c r="Y40" s="10" t="s">
@@ -5944,7 +5943,7 @@
       <c r="BF40" s="8"/>
     </row>
     <row r="41" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B41" s="12" t="str">
@@ -5970,7 +5969,7 @@
         <v>30</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J41" s="1">
         <v>20000</v>
@@ -5994,7 +5993,7 @@
         <v>45</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="R41" s="11" t="s">
         <v>68</v>
@@ -6008,7 +6007,7 @@
       <c r="U41" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y41" s="21" t="s">
+      <c r="Y41" s="20" t="s">
         <v>258</v>
       </c>
       <c r="Z41" s="12" t="s">
@@ -6115,7 +6114,7 @@
       </c>
     </row>
     <row r="42" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B42" s="12" t="str">
@@ -6130,7 +6129,7 @@
       <c r="BF42" s="8"/>
     </row>
     <row r="43" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>220</v>
       </c>
       <c r="B43" s="12" t="str">
@@ -6156,7 +6155,7 @@
         <v>30</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J43" s="1">
         <v>20000</v>
@@ -6301,7 +6300,7 @@
       </c>
     </row>
     <row r="44" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>220</v>
       </c>
       <c r="B44" s="12" t="str">
@@ -6319,7 +6318,7 @@
       <c r="BF44" s="8"/>
     </row>
     <row r="45" spans="1:59" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>504789</v>
       </c>
       <c r="B45" s="12" t="str">
@@ -6345,7 +6344,7 @@
         <v>30</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J45" s="1">
         <v>40000</v>
@@ -6490,7 +6489,7 @@
       </c>
     </row>
     <row r="46" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>221</v>
       </c>
       <c r="B46" s="12" t="str">
@@ -6508,7 +6507,7 @@
       <c r="BF46" s="8"/>
     </row>
     <row r="47" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B47" s="12" t="str">
@@ -6556,7 +6555,7 @@
         <v>45</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="R47" s="11" t="s">
         <v>68</v>
@@ -6570,7 +6569,7 @@
       <c r="U47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Y47" s="21" t="s">
+      <c r="Y47" s="20" t="s">
         <v>258</v>
       </c>
       <c r="Z47" s="12" t="s">
@@ -6677,7 +6676,7 @@
       </c>
     </row>
     <row r="48" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B48" s="12" t="str">
@@ -6692,7 +6691,7 @@
       <c r="BF48" s="8"/>
     </row>
     <row r="49" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>223</v>
       </c>
       <c r="B49" s="12" t="str">
@@ -6703,7 +6702,7 @@
         <v>57</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>62</v>
@@ -6718,7 +6717,7 @@
         <v>24</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J49" s="11">
         <v>55</v>
@@ -6731,16 +6730,16 @@
         <v>55</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O49" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P49" s="21" t="s">
+      <c r="P49" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q49" s="16" t="s">
-        <v>282</v>
+      <c r="Q49" s="26" t="s">
+        <v>289</v>
       </c>
       <c r="R49" s="11" t="s">
         <v>68</v>
@@ -6767,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="AB49" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AC49" s="11" t="s">
         <v>228</v>
@@ -6776,7 +6775,7 @@
         <v>167</v>
       </c>
       <c r="AE49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF49" s="11" t="s">
         <v>69</v>
@@ -6864,7 +6863,7 @@
       </c>
     </row>
     <row r="50" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>223</v>
       </c>
       <c r="B50" s="12" t="str">
@@ -6878,7 +6877,7 @@
         <v>25</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J50" s="11">
         <v>80</v>
@@ -6888,12 +6887,12 @@
       </c>
       <c r="L50" s="10"/>
       <c r="AE50" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BF50" s="8"/>
     </row>
     <row r="51" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>234</v>
       </c>
       <c r="B51" s="12" t="str">
@@ -7059,7 +7058,7 @@
       </c>
     </row>
     <row r="52" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>234</v>
       </c>
       <c r="B52" s="12" t="str">
@@ -7075,7 +7074,7 @@
       <c r="AB52" s="10"/>
     </row>
     <row r="53" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>239</v>
       </c>
       <c r="B53" s="12" t="str">
@@ -7101,7 +7100,7 @@
         <v>30</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J53" s="1">
         <v>40000</v>
@@ -7243,7 +7242,7 @@
       </c>
     </row>
     <row r="54" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>588844</v>
       </c>
       <c r="B54" s="12" t="str">
@@ -7260,7 +7259,7 @@
       <c r="AB54" s="10"/>
     </row>
     <row r="55" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>243</v>
       </c>
       <c r="B55" s="12" t="str">
@@ -7286,7 +7285,7 @@
         <v>30</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J55" s="1">
         <v>40000</v>
@@ -7428,7 +7427,7 @@
       </c>
     </row>
     <row r="56" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>588845</v>
       </c>
       <c r="B56" s="12" t="str">
@@ -7445,7 +7444,7 @@
       <c r="AB56" s="10"/>
     </row>
     <row r="57" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>247</v>
       </c>
       <c r="B57" s="12" t="str">
@@ -7471,7 +7470,7 @@
         <v>30</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J57" s="1">
         <v>40000</v>
@@ -7613,7 +7612,7 @@
       </c>
     </row>
     <row r="58" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>247</v>
       </c>
       <c r="B58" s="12" t="str">
@@ -7630,7 +7629,7 @@
       <c r="AB58" s="10"/>
     </row>
     <row r="59" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>251</v>
       </c>
       <c r="B59" s="12" t="str">
@@ -7670,7 +7669,7 @@
         <v>167</v>
       </c>
       <c r="AE59" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF59" s="11" t="s">
         <v>69</v>
@@ -7746,7 +7745,7 @@
       </c>
     </row>
     <row r="60" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>251</v>
       </c>
       <c r="B60" s="12" t="str">
@@ -7780,12 +7779,12 @@
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
       <c r="AE60" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BF60" s="8"/>
     </row>
     <row r="61" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>252</v>
       </c>
       <c r="B61" s="12" t="str">
@@ -7796,7 +7795,7 @@
         <v>65</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>64</v>
@@ -7811,7 +7810,7 @@
         <v>28</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J61" s="1">
         <v>166667</v>
@@ -7824,7 +7823,7 @@
         <v>36</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O61" s="11" t="s">
         <v>70</v>
@@ -7850,7 +7849,7 @@
       <c r="W61" s="11">
         <v>560</v>
       </c>
-      <c r="Y61" s="21" t="s">
+      <c r="Y61" s="20" t="s">
         <v>258</v>
       </c>
       <c r="Z61" s="12" t="s">
@@ -7869,7 +7868,7 @@
         <v>167</v>
       </c>
       <c r="AE61" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF61" s="11" t="s">
         <v>69</v>
@@ -7957,7 +7956,7 @@
       </c>
     </row>
     <row r="62" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>252</v>
       </c>
       <c r="B62" s="12" t="str">
@@ -7965,7 +7964,7 @@
         <v/>
       </c>
       <c r="D62" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>34</v>
@@ -7973,17 +7972,17 @@
       <c r="H62" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="25" t="s">
-        <v>288</v>
+      <c r="I62" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="L62" s="10"/>
       <c r="AE62" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BF62" s="8"/>
     </row>
     <row r="63" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="20" t="s">
         <v>257</v>
       </c>
       <c r="B63" s="12" t="str">
@@ -7991,7 +7990,7 @@
         <v>Need a Detector Role</v>
       </c>
       <c r="L63" s="10"/>
-      <c r="Y63" s="17"/>
+      <c r="Y63" s="16"/>
       <c r="Z63" s="12"/>
       <c r="AC63" s="11" t="s">
         <v>228</v>
@@ -8000,7 +7999,7 @@
         <v>167</v>
       </c>
       <c r="AE63" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF63" s="11" t="s">
         <v>69</v>
@@ -8076,7 +8075,7 @@
       </c>
     </row>
     <row r="64" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="20" t="s">
         <v>257</v>
       </c>
       <c r="B64" s="12" t="str">
@@ -8085,7 +8084,7 @@
       </c>
       <c r="L64" s="10"/>
       <c r="AE64" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BF64" s="8"/>
     </row>
@@ -8100,7 +8099,7 @@
         <v>150</v>
       </c>
       <c r="B66" s="12" t="str">
-        <f t="shared" ref="B66:B69" si="1">IF(OR($A65=$A66,ISBLANK($A66)),"",IF(ISERR(SEARCH("cell-based",E66)),IF(AND(ISERR(SEARCH("biochem",E66)),ISERR(SEARCH("protein",E66)),ISERR(SEARCH("nucleic",E66))),"",IF(ISERR(SEARCH("target",G66)),"Define a Target component","")),IF(ISERR(SEARCH("cell",G66)),"Define a Cell component",""))&amp;IF(ISERR(SEARCH("small-molecule",E66)),IF(ISBLANK(K66), "Need a Detector Role",""),"")&amp;IF(ISERR(SEARCH("fluorescence",L66)),"",IF(ISBLANK(S66), "Need Emission",IF(ISBLANK(R66), "Need Excitation","")))&amp;IF(ISERR(SEARCH("absorbance",L66)),"",IF(ISBLANK(T66), "Need Absorbance","")))</f>
+        <f t="shared" ref="B66:B68" si="1">IF(OR($A65=$A66,ISBLANK($A66)),"",IF(ISERR(SEARCH("cell-based",E66)),IF(AND(ISERR(SEARCH("biochem",E66)),ISERR(SEARCH("protein",E66)),ISERR(SEARCH("nucleic",E66))),"",IF(ISERR(SEARCH("target",G66)),"Define a Target component","")),IF(ISERR(SEARCH("cell",G66)),"Define a Cell component",""))&amp;IF(ISERR(SEARCH("small-molecule",E66)),IF(ISBLANK(K66), "Need a Detector Role",""),"")&amp;IF(ISERR(SEARCH("fluorescence",L66)),"",IF(ISBLANK(S66), "Need Emission",IF(ISBLANK(R66), "Need Excitation","")))&amp;IF(ISERR(SEARCH("absorbance",L66)),"",IF(ISBLANK(T66), "Need Absorbance","")))</f>
         <v/>
       </c>
     </row>
@@ -8118,15 +8117,6 @@
         <v>150</v>
       </c>
       <c r="B68" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B69" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8156,7 +8146,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22 Y3:Y19 Y24:Y48 Y50:Y64">
       <formula1>endpoint</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AF7 AF9 AF11 AF13 AF15 AF17 AF39 AF21:AF37 AF19 AF63:AF69 AF41:AF61 AF3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AF7 AF9 AF11 AF13 AF15 AF17 AF39 AF21:AF37 AF19 AF63:AF68 AF41:AF61 AF3">
       <formula1>modeofaction</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N47 N41 I28 I36:I40 I30:I32 L22 L57 L25 I23:I24 I26 L27 L33 I58:I59 I34 L35 L41 I3:I21 I42 L43 I44 L45 I46:I47 I52 L53 I54 L55 I56 I61:I62">
